--- a/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/3 Sin Acceso a Agua Potable Gestionada de Forma Segura 2000-2015.xlsx
+++ b/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/3 Sin Acceso a Agua Potable Gestionada de Forma Segura 2000-2015.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos y Proyecciones Cambio Climático\Vida Humana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBB40E2-7991-4F78-B8F8-364F6590282A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B816B79B-3AD5-4516-AC27-CA238E968AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAISES" sheetId="3" r:id="rId1"/>
     <sheet name="MUNDO" sheetId="4" r:id="rId2"/>
-    <sheet name="LA" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="250">
   <si>
     <t>Albania</t>
   </si>
@@ -1362,83 +1361,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -1573,108 +1496,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1772,13 +1593,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1788,6 +1602,31 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1818,144 +1657,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
@@ -1979,41 +1680,24 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="País Español"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Código País"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Año"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Número de Personas Sin Acceso a Agua Potable Gestionada de Forma Segura" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Número de Personas Sin Acceso a Agua Potable Gestionada de Forma Segura" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E41061C-551A-4A19-B2AA-78A7C1222326}" name="Acceso_agua_potable_MUNDO" displayName="Acceso_agua_potable_MUNDO" ref="A1:H17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E41061C-551A-4A19-B2AA-78A7C1222326}" name="Acceso_agua_potable_MUNDO" displayName="Acceso_agua_potable_MUNDO" ref="A1:H17" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H17" xr:uid="{2A1CC2ED-B110-4CB4-9AC4-FD6CE5387D7E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D848E907-5E56-4404-B588-09E3D6235043}" name="País" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7A76CCE3-10B9-41FD-9BD8-40E418B37512}" name="País Español" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{3BAC4A86-7CE8-4883-9A5E-1729A217DE1B}" name="Código País" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{D48ECF6F-20A6-4A15-B70C-4B068A37F664}" name="Año" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{26EA07CD-4B41-411A-8FB5-62D249553C16}" name="Número de Personas Sin Acceso a Agua Potable Gestionada de Forma Segura" dataDxfId="6" dataCellStyle="Millares [0]"/>
-    <tableColumn id="6" xr3:uid="{BE5C0393-A789-4772-ACAA-908F91773EB0}" name="Variación" dataDxfId="5" dataCellStyle="Millares [0]"/>
-    <tableColumn id="7" xr3:uid="{38257D80-6E36-4C1B-8E9A-1660126EFB6B}" name="Variación Porcentual (%)" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{2AAA356C-FDEE-4185-AB62-A0C03904AC33}" name="Porcentaje del Total de la Población (%)" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C8D2E2C0-F4DD-494F-B0F5-97B95D292797}" name="Acceso_agua_potable_LA" displayName="Acceso_agua_potable_LA" ref="A1:H145" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:H145" xr:uid="{D3E73DB8-DB2E-47AC-8602-8E04564AD891}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0A66A992-6891-45F2-A143-80F8EAC0EC80}" name="País" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{1FDC9C4C-1842-4E8D-9DDB-4B3B755F83F3}" name="País Español" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2F7C6C4E-54F7-419B-BF85-F5D1CCEE867C}" name="Código País" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E46B485E-F752-47BC-98E5-E1138ACF9495}" name="Año" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{28E86A54-71EF-4C25-BE55-D579F5D88AFE}" name="Número de Personas Sin Acceso a Agua Potable Gestionada de Forma Segura" dataDxfId="10" dataCellStyle="Millares [0]"/>
-    <tableColumn id="6" xr3:uid="{E2C36E83-5E72-4E23-B2D3-9D167B789401}" name="Variación" dataDxfId="2" dataCellStyle="Millares [0]"/>
-    <tableColumn id="7" xr3:uid="{1A9524D0-791E-4D21-BA17-A754818DE4E0}" name="Variación Porcentual (%)" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{D1BBB20A-1903-498E-922D-3F3620A9D237}" name="Porcentaje del Total de la Población (%)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D848E907-5E56-4404-B588-09E3D6235043}" name="País" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7A76CCE3-10B9-41FD-9BD8-40E418B37512}" name="País Español" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3BAC4A86-7CE8-4883-9A5E-1729A217DE1B}" name="Código País" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D48ECF6F-20A6-4A15-B70C-4B068A37F664}" name="Año" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{26EA07CD-4B41-411A-8FB5-62D249553C16}" name="Número de Personas Sin Acceso a Agua Potable Gestionada de Forma Segura" dataDxfId="3" dataCellStyle="Millares [0]"/>
+    <tableColumn id="6" xr3:uid="{BE5C0393-A789-4772-ACAA-908F91773EB0}" name="Variación" dataDxfId="2" dataCellStyle="Millares [0]"/>
+    <tableColumn id="7" xr3:uid="{38257D80-6E36-4C1B-8E9A-1660126EFB6B}" name="Variación Porcentual (%)" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{2AAA356C-FDEE-4185-AB62-A0C03904AC33}" name="Porcentaje del Total de la Población (%)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -25765,7 +25449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DEF506-7169-4A7D-BBE3-506DAF851960}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -26242,3797 +25926,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261D4F8E-0E44-4D12-AD78-1DC5AB619525}">
-  <dimension ref="A1:H145"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="70.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="6">
-        <v>854268.17909999995</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="14">
-        <v>2.3169107946624719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E3" s="7">
-        <v>845496.78209999995</v>
-      </c>
-      <c r="F3" s="7">
-        <v>-8771.3969999999972</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-1.0267732328788082</v>
-      </c>
-      <c r="H3" s="14">
-        <v>2.2682068411310223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E4" s="6">
-        <v>836833.74939999997</v>
-      </c>
-      <c r="F4" s="7">
-        <v>-8663.0326999999816</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-1.0246085950183277</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2.2207784868106786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E5" s="7">
-        <v>828350.98179999995</v>
-      </c>
-      <c r="F5" s="7">
-        <v>-8482.767600000021</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-1.0136741743604469</v>
-      </c>
-      <c r="H5" s="14">
-        <v>2.1748345457886997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E6" s="6">
-        <v>820073.85679999995</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-8277.125</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-0.99922921344450821</v>
-      </c>
-      <c r="H6" s="14">
-        <v>2.1305046679829571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E7" s="7">
-        <v>784186.66399999999</v>
-      </c>
-      <c r="F7" s="7">
-        <v>-35887.192799999961</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-4.3760927753550067</v>
-      </c>
-      <c r="H7" s="14">
-        <v>2.0162668449335359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E8" s="6">
-        <v>747954.64359999995</v>
-      </c>
-      <c r="F8" s="7">
-        <v>-36232.020400000038</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-4.6203311103490075</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1.9036768735047085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E9" s="7">
-        <v>711394.89229999995</v>
-      </c>
-      <c r="F9" s="7">
-        <v>-36559.751300000004</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-4.8879636770531043</v>
-      </c>
-      <c r="H9" s="14">
-        <v>1.7926491591069447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E10" s="6">
-        <v>699343.03859999997</v>
-      </c>
-      <c r="F10" s="7">
-        <v>-12051.853699999978</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-1.694115860325524</v>
-      </c>
-      <c r="H10" s="14">
-        <v>1.7448678607784431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E11" s="7">
-        <v>691509.73589999997</v>
-      </c>
-      <c r="F11" s="7">
-        <v>-7833.3027000000002</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-1.12009446975855</v>
-      </c>
-      <c r="H11" s="14">
-        <v>1.7081484472494628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E12" s="6">
-        <v>684044.97549999994</v>
-      </c>
-      <c r="F12" s="7">
-        <v>-7464.7604000000283</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-1.0794873900487665</v>
-      </c>
-      <c r="H12" s="14">
-        <v>1.6726451865708136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E13" s="7">
-        <v>676969.52280000004</v>
-      </c>
-      <c r="F13" s="7">
-        <v>-7075.4526999999071</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-1.034354896741714</v>
-      </c>
-      <c r="H13" s="14">
-        <v>1.6383579932236205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E14" s="6">
-        <v>670254.31050000002</v>
-      </c>
-      <c r="F14" s="7">
-        <v>-6715.2123000000138</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-0.99195193783988367</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1.605207305711891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E15" s="7">
-        <v>678245.88280000002</v>
-      </c>
-      <c r="F15" s="7">
-        <v>7991.5722999999998</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1.1923194188842146</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1.6073700891079723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E16" s="6">
-        <v>632407.71479999996</v>
-      </c>
-      <c r="F16" s="7">
-        <v>-45838.168000000063</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-6.7583407673285851</v>
-      </c>
-      <c r="H16" s="14">
-        <v>1.4832021079787983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E17" s="7">
-        <v>640358.71039999998</v>
-      </c>
-      <c r="F17" s="7">
-        <v>7950.9956000000238</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1.2572578439392599</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1.4866133729541497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1370998.2320000001</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H18" s="14">
-        <v>8.9362418980576201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1285681.926</v>
-      </c>
-      <c r="F19" s="7">
-        <v>-85316.306000000099</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-6.2229333348987206</v>
-      </c>
-      <c r="H19" s="14">
-        <v>8.2861686388244387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1197497.9609999999</v>
-      </c>
-      <c r="F20" s="7">
-        <v>-88183.965000000084</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-6.8589254633420182</v>
-      </c>
-      <c r="H20" s="14">
-        <v>7.6351565990818662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1107241.6129999999</v>
-      </c>
-      <c r="F21" s="7">
-        <v>-90256.347999999998</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-7.537077384635313</v>
-      </c>
-      <c r="H21" s="14">
-        <v>6.985751501577286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1015392.697</v>
-      </c>
-      <c r="F22" s="7">
-        <v>-91848.915999999852</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-8.2952911922395263</v>
-      </c>
-      <c r="H22" s="14">
-        <v>6.3402603621604747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E23" s="7">
-        <v>922262.05</v>
-      </c>
-      <c r="F23" s="7">
-        <v>-93130.646999999997</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-9.1718846585322638</v>
-      </c>
-      <c r="H23" s="14">
-        <v>5.6989560032132482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E24" s="6">
-        <v>828203.38119999995</v>
-      </c>
-      <c r="F24" s="7">
-        <v>-94058.668800000101</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-10.19869231310126</v>
-      </c>
-      <c r="H24" s="14">
-        <v>5.0639155071843467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E25" s="7">
-        <v>732784.67630000005</v>
-      </c>
-      <c r="F25" s="7">
-        <v>-95418.704899999895</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-11.521168237896577</v>
-      </c>
-      <c r="H25" s="14">
-        <v>4.4330591427707207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E26" s="6">
-        <v>634721.07400000002</v>
-      </c>
-      <c r="F26" s="7">
-        <v>-98063.602300000028</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-13.38232163848539</v>
-      </c>
-      <c r="H26" s="14">
-        <v>3.7989051592051717</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E27" s="7">
-        <v>532428.9264</v>
-      </c>
-      <c r="F27" s="7">
-        <v>-102292.14760000003</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-16.116078666705814</v>
-      </c>
-      <c r="H27" s="14">
-        <v>3.1530790382565441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E28" s="6">
-        <v>454463.0344</v>
-      </c>
-      <c r="F28" s="7">
-        <v>-77965.891999999993</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-14.64343654789076</v>
-      </c>
-      <c r="H28" s="14">
-        <v>2.663441565961437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E29" s="7">
-        <v>374372.56199999998</v>
-      </c>
-      <c r="F29" s="7">
-        <v>-80090.472400000028</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-17.623099424519452</v>
-      </c>
-      <c r="H29" s="14">
-        <v>2.1722905999767899</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E30" s="6">
-        <v>289921.85090000002</v>
-      </c>
-      <c r="F30" s="7">
-        <v>-84450.711099999957</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-22.557932838037409</v>
-      </c>
-      <c r="H30" s="14">
-        <v>1.6662175339080463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E31" s="7">
-        <v>206696.50339999999</v>
-      </c>
-      <c r="F31" s="7">
-        <v>-83225.347500000033</v>
-      </c>
-      <c r="G31" s="10">
-        <v>-28.706131408048357</v>
-      </c>
-      <c r="H31" s="14">
-        <v>1.1762833109492374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E32" s="6">
-        <v>158907.43100000001</v>
-      </c>
-      <c r="F32" s="7">
-        <v>-47789.072399999975</v>
-      </c>
-      <c r="G32" s="10">
-        <v>-23.120406786716828</v>
-      </c>
-      <c r="H32" s="14">
-        <v>0.89479943127428352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E33" s="7">
-        <v>145845.2181</v>
-      </c>
-      <c r="F33" s="7">
-        <v>-13062.212900000013</v>
-      </c>
-      <c r="G33" s="10">
-        <v>-8.2200138897217538</v>
-      </c>
-      <c r="H33" s="14">
-        <v>0.81164905170015034</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E34" s="6">
-        <v>13163723.970000001</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H34" s="14">
-        <v>33.216563133989403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E35" s="7">
-        <v>13202409.869999999</v>
-      </c>
-      <c r="F35" s="7">
-        <v>38685.89999999851</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0.29388264360574029</v>
-      </c>
-      <c r="H35" s="14">
-        <v>32.796129446542132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E36" s="6">
-        <v>13237647.4</v>
-      </c>
-      <c r="F36" s="7">
-        <v>35237.530000001192</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0.26690225759519765</v>
-      </c>
-      <c r="H36" s="14">
-        <v>32.385681712538229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E37" s="7">
-        <v>13268702.029999999</v>
-      </c>
-      <c r="F37" s="7">
-        <v>31054.629999998957</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0.23459327070457364</v>
-      </c>
-      <c r="H37" s="14">
-        <v>31.985107583646709</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E38" s="6">
-        <v>13294293.699999999</v>
-      </c>
-      <c r="F38" s="7">
-        <v>25591.669999999925</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0.19287244481139296</v>
-      </c>
-      <c r="H38" s="14">
-        <v>31.595906692651393</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E39" s="7">
-        <v>13314056.57</v>
-      </c>
-      <c r="F39" s="7">
-        <v>19762.870000001043</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0.14865678798717261</v>
-      </c>
-      <c r="H39" s="14">
-        <v>31.218478170136933</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E40" s="6">
-        <v>13327689.43</v>
-      </c>
-      <c r="F40" s="7">
-        <v>13632.859999999404</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0.10239448757276388</v>
-      </c>
-      <c r="H40" s="14">
-        <v>30.850418809749776</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E41" s="7">
-        <v>13402679.279999999</v>
-      </c>
-      <c r="F41" s="7">
-        <v>74989.849999999627</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0.56266204576466949</v>
-      </c>
-      <c r="H41" s="14">
-        <v>30.643100461840962</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E42" s="6">
-        <v>13474066.130000001</v>
-      </c>
-      <c r="F42" s="7">
-        <v>71386.85000000149</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0.53263118894837491</v>
-      </c>
-      <c r="H42" s="14">
-        <v>30.446426686250142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E43" s="7">
-        <v>13541879.640000001</v>
-      </c>
-      <c r="F43" s="7">
-        <v>67813.509999999776</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0.50328912850600482</v>
-      </c>
-      <c r="H43" s="14">
-        <v>30.261183553072627</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E44" s="6">
-        <v>13606140.76</v>
-      </c>
-      <c r="F44" s="7">
-        <v>64261.11999999918</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0.47453619222980459</v>
-      </c>
-      <c r="H44" s="14">
-        <v>30.086771686973442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E45" s="7">
-        <v>13666817.34</v>
-      </c>
-      <c r="F45" s="7">
-        <v>60676.580000000075</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0.44594996531551451</v>
-      </c>
-      <c r="H45" s="14">
-        <v>29.929740358714934</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E46" s="6">
-        <v>13724091.939999999</v>
-      </c>
-      <c r="F46" s="7">
-        <v>57274.599999999627</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0.41907781874254296</v>
-      </c>
-      <c r="H46" s="14">
-        <v>29.785771204097578</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E47" s="7">
-        <v>13777896.42</v>
-      </c>
-      <c r="F47" s="7">
-        <v>53804.480000000447</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0.39204400724817973</v>
-      </c>
-      <c r="H47" s="14">
-        <v>29.633071125927518</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E48" s="6">
-        <v>13836426.01</v>
-      </c>
-      <c r="F48" s="7">
-        <v>58529.589999999851</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0.42480788224709159</v>
-      </c>
-      <c r="H48" s="14">
-        <v>29.459261646227219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E49" s="7">
-        <v>13927178.029999999</v>
-      </c>
-      <c r="F49" s="7">
-        <v>90752.019999999553</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0.65589206298223512</v>
-      </c>
-      <c r="H49" s="14">
-        <v>29.307417836324994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1166902.5290000001</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H50" s="14">
-        <v>29.452360651186272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E51" s="7">
-        <v>1120264.692</v>
-      </c>
-      <c r="F51" s="7">
-        <v>-46637.837000000058</v>
-      </c>
-      <c r="G51" s="10">
-        <v>-3.9967208777897896</v>
-      </c>
-      <c r="H51" s="14">
-        <v>27.770567476450175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1070049.3030000001</v>
-      </c>
-      <c r="F52" s="7">
-        <v>-50215.388999999966</v>
-      </c>
-      <c r="G52" s="10">
-        <v>-4.4824575262075621</v>
-      </c>
-      <c r="H52" s="14">
-        <v>26.092399487929775</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E53" s="7">
-        <v>1016890.528</v>
-      </c>
-      <c r="F53" s="7">
-        <v>-53158.775000000023</v>
-      </c>
-      <c r="G53" s="10">
-        <v>-4.9678809052034891</v>
-      </c>
-      <c r="H53" s="14">
-        <v>24.42100211335255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E54" s="6">
-        <v>961442.85190000001</v>
-      </c>
-      <c r="F54" s="7">
-        <v>-55447.676100000041</v>
-      </c>
-      <c r="G54" s="10">
-        <v>-5.4526691490630181</v>
-      </c>
-      <c r="H54" s="14">
-        <v>22.756043831952663</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E55" s="7">
-        <v>904156.15319999994</v>
-      </c>
-      <c r="F55" s="7">
-        <v>-57286.698700000066</v>
-      </c>
-      <c r="G55" s="10">
-        <v>-5.9584091333967786</v>
-      </c>
-      <c r="H55" s="14">
-        <v>21.095570536630891</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E56" s="6">
-        <v>845154.04839999997</v>
-      </c>
-      <c r="F56" s="7">
-        <v>-59002.104799999972</v>
-      </c>
-      <c r="G56" s="10">
-        <v>-6.525654290044816</v>
-      </c>
-      <c r="H56" s="14">
-        <v>19.451186384349828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E57" s="7">
-        <v>784380.49970000004</v>
-      </c>
-      <c r="F57" s="7">
-        <v>-60773.548699999927</v>
-      </c>
-      <c r="G57" s="10">
-        <v>-7.1908250117304799</v>
-      </c>
-      <c r="H57" s="14">
-        <v>17.806594771850168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E58" s="6">
-        <v>721830.60679999995</v>
-      </c>
-      <c r="F58" s="7">
-        <v>-62549.892900000094</v>
-      </c>
-      <c r="G58" s="10">
-        <v>-7.9744324245596854</v>
-      </c>
-      <c r="H58" s="14">
-        <v>16.173663607438939</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E59" s="7">
-        <v>657481.93579999998</v>
-      </c>
-      <c r="F59" s="7">
-        <v>-64348.670999999973</v>
-      </c>
-      <c r="G59" s="10">
-        <v>-8.9146498352665837</v>
-      </c>
-      <c r="H59" s="14">
-        <v>14.542843083388631</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E60" s="6">
-        <v>601865.14599999995</v>
-      </c>
-      <c r="F60" s="7">
-        <v>-55616.789800000028</v>
-      </c>
-      <c r="G60" s="10">
-        <v>-8.4590597507941503</v>
-      </c>
-      <c r="H60" s="14">
-        <v>13.149773781953243</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E61" s="7">
-        <v>577014.73100000003</v>
-      </c>
-      <c r="F61" s="7">
-        <v>-24850.414999999921</v>
-      </c>
-      <c r="G61" s="10">
-        <v>-4.1289008285586819</v>
-      </c>
-      <c r="H61" s="14">
-        <v>12.454451349017916</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E62" s="6">
-        <v>552907.7635</v>
-      </c>
-      <c r="F62" s="7">
-        <v>-24106.967500000028</v>
-      </c>
-      <c r="G62" s="10">
-        <v>-4.1778773062208057</v>
-      </c>
-      <c r="H62" s="14">
-        <v>11.794107583191126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E63" s="7">
-        <v>529616.91469999996</v>
-      </c>
-      <c r="F63" s="7">
-        <v>-23290.848800000036</v>
-      </c>
-      <c r="G63" s="10">
-        <v>-4.2124293304483569</v>
-      </c>
-      <c r="H63" s="14">
-        <v>11.168640124420076</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E64" s="6">
-        <v>507699.06599999999</v>
-      </c>
-      <c r="F64" s="7">
-        <v>-21917.848699999973</v>
-      </c>
-      <c r="G64" s="10">
-        <v>-4.1384344214941242</v>
-      </c>
-      <c r="H64" s="14">
-        <v>10.588093138686132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E65" s="7">
-        <v>490343.08270000003</v>
-      </c>
-      <c r="F65" s="7">
-        <v>-17355.983299999963</v>
-      </c>
-      <c r="G65" s="10">
-        <v>-3.4185572639993715</v>
-      </c>
-      <c r="H65" s="14">
-        <v>10.114337514438944</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E66" s="6">
-        <v>4248478.3109999998</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H66" s="14">
-        <v>33.502707286491599</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E67" s="7">
-        <v>4246403.1529999999</v>
-      </c>
-      <c r="F67" s="7">
-        <v>-2075.1579999998212</v>
-      </c>
-      <c r="G67" s="10">
-        <v>-4.8844735646334833E-2</v>
-      </c>
-      <c r="H67" s="14">
-        <v>32.879621780874956</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E68" s="6">
-        <v>4246256.1390000004</v>
-      </c>
-      <c r="F68" s="7">
-        <v>-147.01399999950081</v>
-      </c>
-      <c r="G68" s="10">
-        <v>-3.4620829606260613E-3</v>
-      </c>
-      <c r="H68" s="14">
-        <v>32.3081194476147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E69" s="7">
-        <v>4247348.7819999997</v>
-      </c>
-      <c r="F69" s="7">
-        <v>1092.6429999992251</v>
-      </c>
-      <c r="G69" s="10">
-        <v>2.5731914520270651E-2</v>
-      </c>
-      <c r="H69" s="14">
-        <v>31.767754540014959</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E70" s="6">
-        <v>4246887.7010000004</v>
-      </c>
-      <c r="F70" s="7">
-        <v>-461.0809999993071</v>
-      </c>
-      <c r="G70" s="10">
-        <v>-1.0855736688103875E-2</v>
-      </c>
-      <c r="H70" s="14">
-        <v>31.236302596351869</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E71" s="7">
-        <v>4245801.8339999998</v>
-      </c>
-      <c r="F71" s="7">
-        <v>-1085.8670000005513</v>
-      </c>
-      <c r="G71" s="10">
-        <v>-2.556853574783402E-2</v>
-      </c>
-      <c r="H71" s="14">
-        <v>30.708822754231157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E72" s="6">
-        <v>4244338.1459999997</v>
-      </c>
-      <c r="F72" s="7">
-        <v>-1463.688000000082</v>
-      </c>
-      <c r="G72" s="10">
-        <v>-3.4473770967806364E-2</v>
-      </c>
-      <c r="H72" s="14">
-        <v>30.189473973966852</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D73" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E73" s="7">
-        <v>4242036.7920000004</v>
-      </c>
-      <c r="F73" s="7">
-        <v>-2301.3539999993518</v>
-      </c>
-      <c r="G73" s="10">
-        <v>-5.4221740135578539E-2</v>
-      </c>
-      <c r="H73" s="14">
-        <v>29.670817598097507</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E74" s="6">
-        <v>4238421.3320000004</v>
-      </c>
-      <c r="F74" s="7">
-        <v>-3615.4599999999627</v>
-      </c>
-      <c r="G74" s="10">
-        <v>-8.5229340934013353E-2</v>
-      </c>
-      <c r="H74" s="14">
-        <v>29.158099422124383</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E75" s="7">
-        <v>4232703.9790000003</v>
-      </c>
-      <c r="F75" s="7">
-        <v>-5717.3530000001192</v>
-      </c>
-      <c r="G75" s="10">
-        <v>-0.13489345565610036</v>
-      </c>
-      <c r="H75" s="14">
-        <v>28.649681731420063</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E76" s="6">
-        <v>4224289.8109999998</v>
-      </c>
-      <c r="F76" s="7">
-        <v>-8414.168000000529</v>
-      </c>
-      <c r="G76" s="10">
-        <v>-0.19878942731989549</v>
-      </c>
-      <c r="H76" s="14">
-        <v>28.141295123576043</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E77" s="7">
-        <v>4213065.1189999999</v>
-      </c>
-      <c r="F77" s="7">
-        <v>-11224.691999999806</v>
-      </c>
-      <c r="G77" s="10">
-        <v>-0.26571784849540492</v>
-      </c>
-      <c r="H77" s="14">
-        <v>27.637530300446077</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E78" s="6">
-        <v>4198782.7719999999</v>
-      </c>
-      <c r="F78" s="7">
-        <v>-14282.347000000067</v>
-      </c>
-      <c r="G78" s="10">
-        <v>-0.33900133505152374</v>
-      </c>
-      <c r="H78" s="14">
-        <v>27.134436939382187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E79" s="7">
-        <v>4181406.4019999998</v>
-      </c>
-      <c r="F79" s="7">
-        <v>-17376.370000000112</v>
-      </c>
-      <c r="G79" s="10">
-        <v>-0.41384303364956537</v>
-      </c>
-      <c r="H79" s="14">
-        <v>26.621292430126694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E80" s="6">
-        <v>4160856.8160000001</v>
-      </c>
-      <c r="F80" s="7">
-        <v>-20549.585999999661</v>
-      </c>
-      <c r="G80" s="10">
-        <v>-0.49145153626231192</v>
-      </c>
-      <c r="H80" s="14">
-        <v>26.08360591775326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E81" s="7">
-        <v>4139293.4449999998</v>
-      </c>
-      <c r="F81" s="7">
-        <v>-21563.371000000276</v>
-      </c>
-      <c r="G81" s="10">
-        <v>-0.51824352419629804</v>
-      </c>
-      <c r="H81" s="14">
-        <v>25.532281303972365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E82" s="6">
-        <v>5786405.9409999996</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H82" s="14">
-        <v>49.664457480044625</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E83" s="7">
-        <v>5833601.1500000004</v>
-      </c>
-      <c r="F83" s="7">
-        <v>47195.20900000073</v>
-      </c>
-      <c r="G83" s="10">
-        <v>0.81562215788553039</v>
-      </c>
-      <c r="H83" s="14">
-        <v>48.919087211740042</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E84" s="6">
-        <v>5882353.7539999997</v>
-      </c>
-      <c r="F84" s="7">
-        <v>48752.603999999352</v>
-      </c>
-      <c r="G84" s="10">
-        <v>0.83572055658963507</v>
-      </c>
-      <c r="H84" s="14">
-        <v>48.180471406339585</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E85" s="7">
-        <v>5931415.176</v>
-      </c>
-      <c r="F85" s="7">
-        <v>49061.422000000253</v>
-      </c>
-      <c r="G85" s="10">
-        <v>0.83404405875179621</v>
-      </c>
-      <c r="H85" s="14">
-        <v>47.451321408000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E86" s="6">
-        <v>5978983.841</v>
-      </c>
-      <c r="F86" s="7">
-        <v>47568.665000000037</v>
-      </c>
-      <c r="G86" s="10">
-        <v>0.80197834055648032</v>
-      </c>
-      <c r="H86" s="14">
-        <v>46.721761670704076</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E87" s="7">
-        <v>6023782.79</v>
-      </c>
-      <c r="F87" s="7">
-        <v>44798.949000000022</v>
-      </c>
-      <c r="G87" s="10">
-        <v>0.7492736256083824</v>
-      </c>
-      <c r="H87" s="14">
-        <v>45.997119654856448</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E88" s="6">
-        <v>6065340.4400000004</v>
-      </c>
-      <c r="F88" s="7">
-        <v>41557.650000000373</v>
-      </c>
-      <c r="G88" s="10">
-        <v>0.68989290365830691</v>
-      </c>
-      <c r="H88" s="14">
-        <v>45.273870568037623</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E89" s="7">
-        <v>6103867.4900000002</v>
-      </c>
-      <c r="F89" s="7">
-        <v>38527.049999999814</v>
-      </c>
-      <c r="G89" s="10">
-        <v>0.63520012406755877</v>
-      </c>
-      <c r="H89" s="14">
-        <v>44.553777299270074</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D90" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E90" s="6">
-        <v>6139601.4639999997</v>
-      </c>
-      <c r="F90" s="7">
-        <v>35733.973999999464</v>
-      </c>
-      <c r="G90" s="10">
-        <v>0.58543168013628455</v>
-      </c>
-      <c r="H90" s="14">
-        <v>43.835509524489503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E91" s="7">
-        <v>6172973.8930000002</v>
-      </c>
-      <c r="F91" s="7">
-        <v>33372.429000000469</v>
-      </c>
-      <c r="G91" s="10">
-        <v>0.54356018376244997</v>
-      </c>
-      <c r="H91" s="14">
-        <v>43.119404114277735</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E92" s="6">
-        <v>6204191.1600000001</v>
-      </c>
-      <c r="F92" s="7">
-        <v>31217.266999999993</v>
-      </c>
-      <c r="G92" s="10">
-        <v>0.50570871578445531</v>
-      </c>
-      <c r="H92" s="14">
-        <v>42.407321667805881</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D93" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E93" s="7">
-        <v>6233161.1160000004</v>
-      </c>
-      <c r="F93" s="7">
-        <v>28969.956000000238</v>
-      </c>
-      <c r="G93" s="10">
-        <v>0.46694170525848588</v>
-      </c>
-      <c r="H93" s="14">
-        <v>41.69617443307245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D94" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E94" s="6">
-        <v>6259312.3640000001</v>
-      </c>
-      <c r="F94" s="7">
-        <v>26151.247999999672</v>
-      </c>
-      <c r="G94" s="10">
-        <v>0.41955032949287346</v>
-      </c>
-      <c r="H94" s="14">
-        <v>40.988228432977536</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D95" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E95" s="7">
-        <v>6281939.3420000002</v>
-      </c>
-      <c r="F95" s="7">
-        <v>22626.978000000119</v>
-      </c>
-      <c r="G95" s="10">
-        <v>0.36149303124952847</v>
-      </c>
-      <c r="H95" s="14">
-        <v>40.279169928186718</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D96" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E96" s="6">
-        <v>6300025.0769999996</v>
-      </c>
-      <c r="F96" s="7">
-        <v>18085.734999999404</v>
-      </c>
-      <c r="G96" s="10">
-        <v>0.28790050357667724</v>
-      </c>
-      <c r="H96" s="14">
-        <v>39.565566017710225</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D97" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E97" s="7">
-        <v>6312847.8140000002</v>
-      </c>
-      <c r="F97" s="7">
-        <v>12822.737000000663</v>
-      </c>
-      <c r="G97" s="10">
-        <v>0.20353469777150004</v>
-      </c>
-      <c r="H97" s="14">
-        <v>38.843513499876934</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D98" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E98" s="6">
-        <v>61913144.100000001</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H98" s="14">
-        <v>62.601763498483315</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E99" s="7">
-        <v>62415511.880000003</v>
-      </c>
-      <c r="F99" s="7">
-        <v>502367.78000000119</v>
-      </c>
-      <c r="G99" s="10">
-        <v>0.81140731471913918</v>
-      </c>
-      <c r="H99" s="14">
-        <v>62.230066282478212</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D100" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E100" s="6">
-        <v>62890387.32</v>
-      </c>
-      <c r="F100" s="7">
-        <v>474875.43999999762</v>
-      </c>
-      <c r="G100" s="10">
-        <v>0.76082920046060443</v>
-      </c>
-      <c r="H100" s="14">
-        <v>61.848244401829177</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D101" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E101" s="7">
-        <v>63368610.149999999</v>
-      </c>
-      <c r="F101" s="7">
-        <v>478222.82999999821</v>
-      </c>
-      <c r="G101" s="10">
-        <v>0.7604068767563732</v>
-      </c>
-      <c r="H101" s="14">
-        <v>61.474578389809956</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D102" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E102" s="6">
-        <v>63889399.189999998</v>
-      </c>
-      <c r="F102" s="7">
-        <v>520789.03999999911</v>
-      </c>
-      <c r="G102" s="10">
-        <v>0.82184071698469963</v>
-      </c>
-      <c r="H102" s="14">
-        <v>61.129406487107111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D103" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E103" s="7">
-        <v>64479114.07</v>
-      </c>
-      <c r="F103" s="7">
-        <v>589714.88000000268</v>
-      </c>
-      <c r="G103" s="10">
-        <v>0.92302461359239885</v>
-      </c>
-      <c r="H103" s="14">
-        <v>60.826483722465923</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D104" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E104" s="6">
-        <v>65148963.530000001</v>
-      </c>
-      <c r="F104" s="7">
-        <v>669849.46000000089</v>
-      </c>
-      <c r="G104" s="10">
-        <v>1.0388626916815218</v>
-      </c>
-      <c r="H104" s="14">
-        <v>60.569880559687618</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E105" s="7">
-        <v>65887738.560000002</v>
-      </c>
-      <c r="F105" s="7">
-        <v>738775.03000000119</v>
-      </c>
-      <c r="G105" s="10">
-        <v>1.1339781785780947</v>
-      </c>
-      <c r="H105" s="14">
-        <v>60.352784677249453</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D106" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E106" s="6">
-        <v>66670450.810000002</v>
-      </c>
-      <c r="F106" s="7">
-        <v>782712.25</v>
-      </c>
-      <c r="G106" s="10">
-        <v>1.1879482694450516</v>
-      </c>
-      <c r="H106" s="14">
-        <v>60.163742101701033</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E107" s="7">
-        <v>67460981.299999997</v>
-      </c>
-      <c r="F107" s="7">
-        <v>790530.48999999464</v>
-      </c>
-      <c r="G107" s="10">
-        <v>1.1857284305049602</v>
-      </c>
-      <c r="H107" s="14">
-        <v>59.984511754872671</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D108" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E108" s="6">
-        <v>68232368.989999995</v>
-      </c>
-      <c r="F108" s="7">
-        <v>771387.68999999762</v>
-      </c>
-      <c r="G108" s="10">
-        <v>1.1434575589252474</v>
-      </c>
-      <c r="H108" s="14">
-        <v>59.804167643939586</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D109" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E109" s="7">
-        <v>68977788.239999995</v>
-      </c>
-      <c r="F109" s="7">
-        <v>745419.25</v>
-      </c>
-      <c r="G109" s="10">
-        <v>1.0924715952764987</v>
-      </c>
-      <c r="H109" s="14">
-        <v>59.620371009983138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D110" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E110" s="6">
-        <v>69702429.760000005</v>
-      </c>
-      <c r="F110" s="7">
-        <v>724641.52000001073</v>
-      </c>
-      <c r="G110" s="10">
-        <v>1.0505432813802422</v>
-      </c>
-      <c r="H110" s="14">
-        <v>59.43553537868582</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E111" s="7">
-        <v>70406556.129999995</v>
-      </c>
-      <c r="F111" s="7">
-        <v>704126.36999998987</v>
-      </c>
-      <c r="G111" s="10">
-        <v>1.0101891317482672</v>
-      </c>
-      <c r="H111" s="14">
-        <v>59.251311680005387</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D112" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E112" s="6">
-        <v>71093494.150000006</v>
-      </c>
-      <c r="F112" s="7">
-        <v>686938.02000001073</v>
-      </c>
-      <c r="G112" s="10">
-        <v>0.97567337157016365</v>
-      </c>
-      <c r="H112" s="14">
-        <v>59.069830210626904</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D113" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E113" s="7">
-        <v>71765373.510000005</v>
-      </c>
-      <c r="F113" s="7">
-        <v>671879.3599999994</v>
-      </c>
-      <c r="G113" s="10">
-        <v>0.94506447887116463</v>
-      </c>
-      <c r="H113" s="14">
-        <v>58.892623799832599</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D114" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E114" s="6">
-        <v>2289988.2570000002</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H114" s="14">
-        <v>45.176331761688701</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D115" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E115" s="7">
-        <v>2276303.5970000001</v>
-      </c>
-      <c r="F115" s="7">
-        <v>-13684.660000000149</v>
-      </c>
-      <c r="G115" s="10">
-        <v>-0.59758647050564973</v>
-      </c>
-      <c r="H115" s="14">
-        <v>44.243024237123421</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D116" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E116" s="6">
-        <v>2260460.111</v>
-      </c>
-      <c r="F116" s="7">
-        <v>-15843.486000000034</v>
-      </c>
-      <c r="G116" s="10">
-        <v>-0.6960181419069309</v>
-      </c>
-      <c r="H116" s="14">
-        <v>43.312130887143127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D117" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E117" s="7">
-        <v>2265999.6779999998</v>
-      </c>
-      <c r="F117" s="7">
-        <v>5539.5669999998063</v>
-      </c>
-      <c r="G117" s="10">
-        <v>0.2450636918140161</v>
-      </c>
-      <c r="H117" s="14">
-        <v>42.81934387755102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D118" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E118" s="6">
-        <v>2288309.6320000002</v>
-      </c>
-      <c r="F118" s="7">
-        <v>22309.954000000376</v>
-      </c>
-      <c r="G118" s="10">
-        <v>0.98455239056747901</v>
-      </c>
-      <c r="H118" s="14">
-        <v>42.652556048462259</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D119" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E119" s="7">
-        <v>2310787.8769999999</v>
-      </c>
-      <c r="F119" s="7">
-        <v>22478.244999999646</v>
-      </c>
-      <c r="G119" s="10">
-        <v>0.98230784355670808</v>
-      </c>
-      <c r="H119" s="14">
-        <v>42.485528166942451</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D120" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E120" s="6">
-        <v>2333304.8840000001</v>
-      </c>
-      <c r="F120" s="7">
-        <v>22517.007000000216</v>
-      </c>
-      <c r="G120" s="10">
-        <v>0.97442985676526539</v>
-      </c>
-      <c r="H120" s="14">
-        <v>42.316011679361623</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D121" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E121" s="7">
-        <v>2355794.21</v>
-      </c>
-      <c r="F121" s="7">
-        <v>22489.325999999885</v>
-      </c>
-      <c r="G121" s="10">
-        <v>0.96384000883100551</v>
-      </c>
-      <c r="H121" s="14">
-        <v>42.143009123434702</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D122" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E122" s="6">
-        <v>2378025.13</v>
-      </c>
-      <c r="F122" s="7">
-        <v>22230.919999999925</v>
-      </c>
-      <c r="G122" s="10">
-        <v>0.94366986325176205</v>
-      </c>
-      <c r="H122" s="14">
-        <v>41.962680959943533</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D123" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E123" s="7">
-        <v>2399608.2620000001</v>
-      </c>
-      <c r="F123" s="7">
-        <v>21583.132000000216</v>
-      </c>
-      <c r="G123" s="10">
-        <v>0.90760739774016674</v>
-      </c>
-      <c r="H123" s="14">
-        <v>41.761368987121479</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D124" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E124" s="6">
-        <v>2420304.6209999998</v>
-      </c>
-      <c r="F124" s="7">
-        <v>20696.358999999706</v>
-      </c>
-      <c r="G124" s="10">
-        <v>0.86248907072648284</v>
-      </c>
-      <c r="H124" s="14">
-        <v>41.557428245192305</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D125" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E125" s="7">
-        <v>2440063.2889999999</v>
-      </c>
-      <c r="F125" s="7">
-        <v>19758.668000000063</v>
-      </c>
-      <c r="G125" s="10">
-        <v>0.816371122401789</v>
-      </c>
-      <c r="H125" s="14">
-        <v>41.335986600033877</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E126" s="6">
-        <v>2458971.7999999998</v>
-      </c>
-      <c r="F126" s="7">
-        <v>18908.51099999994</v>
-      </c>
-      <c r="G126" s="10">
-        <v>0.77491887547511651</v>
-      </c>
-      <c r="H126" s="14">
-        <v>41.099311382249702</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D127" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E127" s="7">
-        <v>2477075.733</v>
-      </c>
-      <c r="F127" s="7">
-        <v>18103.933000000194</v>
-      </c>
-      <c r="G127" s="10">
-        <v>0.73623996013293824</v>
-      </c>
-      <c r="H127" s="14">
-        <v>40.862351253711651</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D128" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E128" s="6">
-        <v>2494456.8489999999</v>
-      </c>
-      <c r="F128" s="7">
-        <v>17381.115999999922</v>
-      </c>
-      <c r="G128" s="10">
-        <v>0.70167882913089441</v>
-      </c>
-      <c r="H128" s="14">
-        <v>40.606492739703732</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D129" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E129" s="7">
-        <v>2511196.5839999998</v>
-      </c>
-      <c r="F129" s="7">
-        <v>16739.73499999987</v>
-      </c>
-      <c r="G129" s="10">
-        <v>0.67107735324067219</v>
-      </c>
-      <c r="H129" s="14">
-        <v>40.353472344528356</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D130" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E130" s="6">
-        <v>14253375.1</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H130" s="14">
-        <v>53.867630763416479</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D131" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E131" s="7">
-        <v>14346168.460000001</v>
-      </c>
-      <c r="F131" s="7">
-        <v>92793.360000001267</v>
-      </c>
-      <c r="G131" s="10">
-        <v>0.65102727844439645</v>
-      </c>
-      <c r="H131" s="14">
-        <v>53.532476808836151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D132" s="2">
-        <v>2002</v>
-      </c>
-      <c r="E132" s="6">
-        <v>14433945.17</v>
-      </c>
-      <c r="F132" s="7">
-        <v>87776.709999999031</v>
-      </c>
-      <c r="G132" s="10">
-        <v>0.61184775743250286</v>
-      </c>
-      <c r="H132" s="14">
-        <v>53.259824988007821</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D133" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E133" s="7">
-        <v>14518060.01</v>
-      </c>
-      <c r="F133" s="7">
-        <v>84114.839999999851</v>
-      </c>
-      <c r="G133" s="10">
-        <v>0.58275709800274822</v>
-      </c>
-      <c r="H133" s="14">
-        <v>53.03982175215549</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D134" s="2">
-        <v>2004</v>
-      </c>
-      <c r="E134" s="6">
-        <v>14600318.029999999</v>
-      </c>
-      <c r="F134" s="7">
-        <v>82258.019999999553</v>
-      </c>
-      <c r="G134" s="10">
-        <v>0.56659099041704242</v>
-      </c>
-      <c r="H134" s="14">
-        <v>52.853743230524181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D135" s="3">
-        <v>2005</v>
-      </c>
-      <c r="E135" s="7">
-        <v>14682233.16</v>
-      </c>
-      <c r="F135" s="7">
-        <v>81915.13000000082</v>
-      </c>
-      <c r="G135" s="10">
-        <v>0.56105031295678442</v>
-      </c>
-      <c r="H135" s="14">
-        <v>52.688700064594848</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D136" s="2">
-        <v>2006</v>
-      </c>
-      <c r="E136" s="6">
-        <v>14763879.529999999</v>
-      </c>
-      <c r="F136" s="7">
-        <v>81646.36999999918</v>
-      </c>
-      <c r="G136" s="10">
-        <v>0.55608958875843917</v>
-      </c>
-      <c r="H136" s="14">
-        <v>52.536757277062129</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D137" s="3">
-        <v>2007</v>
-      </c>
-      <c r="E137" s="7">
-        <v>14845977.73</v>
-      </c>
-      <c r="F137" s="7">
-        <v>82098.200000001118</v>
-      </c>
-      <c r="G137" s="10">
-        <v>0.5560747080953804</v>
-      </c>
-      <c r="H137" s="14">
-        <v>52.398184908057743</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D138" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E138" s="6">
-        <v>14929985.550000001</v>
-      </c>
-      <c r="F138" s="7">
-        <v>84007.820000000298</v>
-      </c>
-      <c r="G138" s="10">
-        <v>0.56586249506653608</v>
-      </c>
-      <c r="H138" s="14">
-        <v>52.272199250752749</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D139" s="3">
-        <v>2009</v>
-      </c>
-      <c r="E139" s="7">
-        <v>15018539.439999999</v>
-      </c>
-      <c r="F139" s="7">
-        <v>88553.889999998733</v>
-      </c>
-      <c r="G139" s="10">
-        <v>0.59312776762867481</v>
-      </c>
-      <c r="H139" s="14">
-        <v>52.160384260063211</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D140" s="2">
-        <v>2010</v>
-      </c>
-      <c r="E140" s="6">
-        <v>15112549.800000001</v>
-      </c>
-      <c r="F140" s="7">
-        <v>94010.360000001267</v>
-      </c>
-      <c r="G140" s="10">
-        <v>0.62596206758705475</v>
-      </c>
-      <c r="H140" s="14">
-        <v>52.061973956180239</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D141" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E141" s="7">
-        <v>15212971.52</v>
-      </c>
-      <c r="F141" s="7">
-        <v>100421.71999999881</v>
-      </c>
-      <c r="G141" s="10">
-        <v>0.66449223545320457</v>
-      </c>
-      <c r="H141" s="14">
-        <v>51.9852772006561</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D142" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E142" s="6">
-        <v>15318655.02</v>
-      </c>
-      <c r="F142" s="7">
-        <v>105683.5</v>
-      </c>
-      <c r="G142" s="10">
-        <v>0.6946933402265385</v>
-      </c>
-      <c r="H142" s="14">
-        <v>51.915325244857151</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D143" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E143" s="7">
-        <v>15427276.810000001</v>
-      </c>
-      <c r="F143" s="7">
-        <v>108621.79000000097</v>
-      </c>
-      <c r="G143" s="10">
-        <v>0.70908176898157582</v>
-      </c>
-      <c r="H143" s="14">
-        <v>51.814592631154696</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D144" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E144" s="6">
-        <v>15535080.220000001</v>
-      </c>
-      <c r="F144" s="7">
-        <v>107803.41000000015</v>
-      </c>
-      <c r="G144" s="10">
-        <v>0.69878444088150216</v>
-      </c>
-      <c r="H144" s="14">
-        <v>51.628714589564638</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D145" s="5">
-        <v>2015</v>
-      </c>
-      <c r="E145" s="8">
-        <v>15639471.970000001</v>
-      </c>
-      <c r="F145" s="8">
-        <v>104391.75</v>
-      </c>
-      <c r="G145" s="11">
-        <v>0.67197432212551511</v>
-      </c>
-      <c r="H145" s="14">
-        <v>51.325758819861505</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>